--- a/Perceptrón multicapa/Outputs/Errores.xlsx
+++ b/Perceptrón multicapa/Outputs/Errores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Documentos\GitHub\RNA\Perceptrón multicapa\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F250090F-DF31-45B9-A81D-DFA47C8F0696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B05CAE-C622-4576-8EC3-ED684C66D39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3B87588-8948-4E42-8651-967371700139}"/>
   </bookViews>
@@ -159,7 +159,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -189,20 +263,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -217,7 +277,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{359DF44D-EAB8-4646-A2C3-AAEFF035065C}" name="Tabla1" displayName="Tabla1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{359DF44D-EAB8-4646-A2C3-AAEFF035065C}" name="Tabla1" displayName="Tabla1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:D1048576" xr:uid="{D7642321-29CD-4BC0-8747-B7714017C64E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{73894AED-13ED-4AB6-BB03-807DC9C4C87A}" name="Modelo"/>
@@ -528,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536769B4-3143-488D-913C-1BDD74C8EF9A}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,6 +2235,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$F$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
